--- a/разметка.xlsx
+++ b/разметка.xlsx
@@ -200,11 +200,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -212,18 +209,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,19 +518,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="48" style="5" customWidth="1"/>
     <col min="2" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -546,479 +543,479 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="93.6" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.26527777777777778</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="93.6" thickBot="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="93.6" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="80.400000000000006" thickBot="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="54" thickBot="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54" thickBot="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <v>1.4120370370370369E-3</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="54" thickBot="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="54" thickBot="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="54" thickBot="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" thickBot="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>1.1921296296296296E-3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="1">
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="54" thickBot="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>9.2592592592592585E-4</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="54" thickBot="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>3.2175925925925926E-3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="1">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>3.5648148148148154E-3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="1">
         <v>3.8773148148148143E-3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="1">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36" thickBot="1">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:4" ht="15" thickBot="1">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="1">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="1">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1">
+      <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="B31" s="1">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8.1018518518518516E-5</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="36" thickBot="1">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="1">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="47.4" thickBot="1">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:4" ht="15" thickBot="1">
+      <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
         <v>2.3148148148148146E-4</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="1">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="67.2" thickBot="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="15" thickBot="1">
+      <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="1">
         <v>6.2500000000000001E-4</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="1">
         <v>6.5972222222222213E-4</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="67.2" thickBot="1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" ht="15" thickBot="1">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
